--- a/data/trans_camb/P16A07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,74</t>
+          <t>-0,12; 3,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,93</t>
+          <t>-0,8; 1,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,57</t>
+          <t>0,58; 3,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,0</t>
+          <t>-3,92; 1,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,04</t>
+          <t>-3,23; 2,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,07</t>
+          <t>-2,49; 3,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,25</t>
+          <t>-0,93; 2,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,86</t>
+          <t>-1,03; 2,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,94</t>
+          <t>0,04; 2,87</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 1331,83</t>
+          <t>-41,55; 1406,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,5; 751,92</t>
+          <t>-78,71; 701,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 1312,57</t>
+          <t>18,81; 1453,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,83; 106,45</t>
+          <t>-75,31; 104,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,27; 139,45</t>
+          <t>-62,03; 130,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 144,3</t>
+          <t>-43,54; 155,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 180,39</t>
+          <t>-42,76; 178,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 150,83</t>
+          <t>-41,29; 149,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 233,24</t>
+          <t>0,15; 235,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,88</t>
+          <t>-0,5; 3,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,39</t>
+          <t>-2,14; 1,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,11</t>
+          <t>-0,69; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,08</t>
+          <t>-5,63; 1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,41</t>
+          <t>-6,32; -0,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,69</t>
+          <t>-3,71; 2,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,64</t>
+          <t>-2,6; 1,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,07</t>
+          <t>-3,76; -0,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,19</t>
+          <t>-1,7; 2,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 548,52</t>
+          <t>-36,11; 524,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,73; 221,68</t>
+          <t>-81,65; 208,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 418,0</t>
+          <t>-38,82; 437,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 27,5</t>
+          <t>-70,4; 28,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,97; -2,48</t>
+          <t>-77,71; 3,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,74; 62,42</t>
+          <t>-44,22; 59,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 57,5</t>
+          <t>-52,68; 58,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,06; 2,07</t>
+          <t>-73,36; 5,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 72,7</t>
+          <t>-33,01; 77,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,86</t>
+          <t>-0,15; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,49</t>
+          <t>-1,53; 2,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,24</t>
+          <t>-2,97; 3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,08</t>
+          <t>-3,03; 8,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,34</t>
+          <t>-2,75; 10,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,25</t>
+          <t>-4,69; 6,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,38</t>
+          <t>-0,09; 4,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,71</t>
+          <t>-0,89; 3,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,08</t>
+          <t>-2,83; 3,45</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 238,09</t>
+          <t>-6,38; 273,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,21; 158,88</t>
+          <t>-48,64; 146,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,49; 152,16</t>
+          <t>-69,57; 154,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 179,91</t>
+          <t>-30,45; 192,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 210,16</t>
+          <t>-30,84; 214,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 164,98</t>
+          <t>-43,22; 149,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 156,8</t>
+          <t>-2,88; 163,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 129,15</t>
+          <t>-20,65; 138,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,63; 97,01</t>
+          <t>-53,7; 106,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,08</t>
+          <t>0,29; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,79</t>
+          <t>-0,79; 1,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,96</t>
+          <t>0,46; 3,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,06</t>
+          <t>-1,27; 4,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,55</t>
+          <t>-3,49; 1,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,92</t>
+          <t>-3,96; 2,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,06</t>
+          <t>0,31; 2,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,21</t>
+          <t>-1,18; 1,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,7</t>
+          <t>-0,32; 2,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,74; 205,06</t>
+          <t>7,36; 204,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 115,59</t>
+          <t>-32,38; 113,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 184,17</t>
+          <t>15,11; 206,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 81,89</t>
+          <t>-17,62; 81,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 32,69</t>
+          <t>-46,17; 25,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 55,11</t>
+          <t>-51,31; 54,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,58; 100,45</t>
+          <t>6,44; 98,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 38,45</t>
+          <t>-27,92; 42,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 90,27</t>
+          <t>-7,31; 85,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,05</t>
+          <t>-3,6; 1,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,45</t>
+          <t>-3,45; 1,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,92</t>
+          <t>-2,09; 3,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,43</t>
+          <t>1,11; 7,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,12</t>
+          <t>-0,31; 6,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,75</t>
+          <t>-2,37; 3,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,29</t>
+          <t>-0,14; 4,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,99</t>
+          <t>-1,28; 3,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,9</t>
+          <t>-1,31; 2,85</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 52,61</t>
+          <t>-69,41; 65,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 77,12</t>
+          <t>-64,27; 73,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 142,25</t>
+          <t>-41,85; 167,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,76; 112,71</t>
+          <t>9,43; 123,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 94,38</t>
+          <t>-2,9; 104,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 58,11</t>
+          <t>-24,34; 58,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 84,38</t>
+          <t>-3,14; 80,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 56,46</t>
+          <t>-17,35; 63,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 56,8</t>
+          <t>-17,09; 56,74</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,96</t>
+          <t>-5,37; -0,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,09</t>
+          <t>-4,95; 0,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,97</t>
+          <t>-3,99; 1,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,55</t>
+          <t>0,2; 4,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,32</t>
+          <t>-0,97; 3,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,43</t>
+          <t>-0,63; 3,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,91</t>
+          <t>-0,69; 3,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,55</t>
+          <t>-1,28; 2,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,51</t>
+          <t>-1,07; 2,37</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 8,5</t>
+          <t>-100,0; 32,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 22,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,96; 132,92</t>
+          <t>-84,64; 151,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,03; 80,33</t>
+          <t>1,42; 78,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 59,19</t>
+          <t>-13,45; 61,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 62,15</t>
+          <t>-9,89; 61,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 59,79</t>
+          <t>-9,21; 62,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 52,99</t>
+          <t>-19,72; 46,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 51,72</t>
+          <t>-16,65; 46,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,83</t>
+          <t>0,16; 1,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,78</t>
+          <t>-0,68; 0,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,98</t>
+          <t>0,21; 1,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,27</t>
+          <t>0,7; 3,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,0</t>
+          <t>-0,61; 1,96</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,85</t>
+          <t>-0,68; 1,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,27</t>
+          <t>0,61; 2,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,13</t>
+          <t>-0,43; 1,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,65</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>5,47; 101,3</t>
+          <t>6,29; 95,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 43,75</t>
+          <t>-28,84; 42,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>5,14; 106,81</t>
+          <t>7,82; 109,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,72; 55,19</t>
+          <t>9,98; 53,45</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 34,85</t>
+          <t>-9,02; 33,02</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 30,98</t>
+          <t>-9,66; 32,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>13,22; 57,36</t>
+          <t>13,38; 54,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 27,45</t>
+          <t>-9,11; 26,86</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 40,43</t>
+          <t>0,06; 40,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
